--- a/BUY.xlsx
+++ b/BUY.xlsx
@@ -1042,7 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I306"/>
+  <dimension ref="A1:I312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -9442,6 +9442,180 @@
         <v>42673</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="4" t="n">
+        <v>45306.3125</v>
+      </c>
+      <c r="B307" t="n">
+        <v>42627</v>
+      </c>
+      <c r="C307" t="n">
+        <v>42677.1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>42627</v>
+      </c>
+      <c r="E307" t="n">
+        <v>42677</v>
+      </c>
+      <c r="F307" t="n">
+        <v>42777</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H307" t="n">
+        <v>42877</v>
+      </c>
+      <c r="I307" t="n">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="4" t="n">
+        <v>45306.3125</v>
+      </c>
+      <c r="B308" t="n">
+        <v>42627</v>
+      </c>
+      <c r="C308" t="n">
+        <v>42677.9</v>
+      </c>
+      <c r="D308" t="n">
+        <v>42627</v>
+      </c>
+      <c r="E308" t="n">
+        <v>42677</v>
+      </c>
+      <c r="F308" t="n">
+        <v>42777</v>
+      </c>
+      <c r="G308" t="n">
+        <v>50.09999999999854</v>
+      </c>
+      <c r="H308" t="n">
+        <v>42877</v>
+      </c>
+      <c r="I308" t="n">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="4" t="n">
+        <v>45306.3125</v>
+      </c>
+      <c r="B309" t="n">
+        <v>42627</v>
+      </c>
+      <c r="C309" t="n">
+        <v>42677.9</v>
+      </c>
+      <c r="D309" t="n">
+        <v>42627</v>
+      </c>
+      <c r="E309" t="n">
+        <v>42677</v>
+      </c>
+      <c r="F309" t="n">
+        <v>42777</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H309" t="n">
+        <v>42877</v>
+      </c>
+      <c r="I309" t="n">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="4" t="n">
+        <v>45306.3125</v>
+      </c>
+      <c r="B310" t="n">
+        <v>42627</v>
+      </c>
+      <c r="C310" t="n">
+        <v>42677</v>
+      </c>
+      <c r="D310" t="n">
+        <v>42627</v>
+      </c>
+      <c r="E310" t="n">
+        <v>42677</v>
+      </c>
+      <c r="F310" t="n">
+        <v>42777</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H310" t="n">
+        <v>42877</v>
+      </c>
+      <c r="I310" t="n">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="4" t="n">
+        <v>45306.3125</v>
+      </c>
+      <c r="B311" t="n">
+        <v>42627</v>
+      </c>
+      <c r="C311" t="n">
+        <v>42677</v>
+      </c>
+      <c r="D311" t="n">
+        <v>42627</v>
+      </c>
+      <c r="E311" t="n">
+        <v>42677</v>
+      </c>
+      <c r="F311" t="n">
+        <v>42777</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H311" t="n">
+        <v>42877</v>
+      </c>
+      <c r="I311" t="n">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="4" t="n">
+        <v>45306.3125</v>
+      </c>
+      <c r="B312" t="n">
+        <v>42627</v>
+      </c>
+      <c r="C312" t="n">
+        <v>42677</v>
+      </c>
+      <c r="D312" t="n">
+        <v>42627</v>
+      </c>
+      <c r="E312" t="n">
+        <v>42677</v>
+      </c>
+      <c r="F312" t="n">
+        <v>42777</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-107</v>
+      </c>
+      <c r="H312" t="n">
+        <v>42877</v>
+      </c>
+      <c r="I312" t="n">
+        <v>42977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BUY.xlsx
+++ b/BUY.xlsx
@@ -1042,7 +1042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I312"/>
+  <dimension ref="A1:I609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
@@ -9616,6 +9616,8619 @@
         <v>42977</v>
       </c>
     </row>
+    <row r="313">
+      <c r="A313" s="4" t="n">
+        <v>45307.47916666666</v>
+      </c>
+      <c r="B313" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C313" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D313" t="n">
+        <v>42753</v>
+      </c>
+      <c r="E313" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F313" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G313" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H313" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I313" t="n">
+        <v>31660</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="4" t="n">
+        <v>45307.47916666666</v>
+      </c>
+      <c r="B314" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C314" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D314" t="n">
+        <v>42753</v>
+      </c>
+      <c r="E314" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F314" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G314" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H314" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I314" t="n">
+        <v>31820</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="4" t="n">
+        <v>45307.47916666666</v>
+      </c>
+      <c r="B315" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C315" t="n">
+        <v>42888.8</v>
+      </c>
+      <c r="D315" t="n">
+        <v>42753</v>
+      </c>
+      <c r="E315" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F315" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G315" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H315" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I315" t="n">
+        <v>51620</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="4" t="n">
+        <v>45307.48958333334</v>
+      </c>
+      <c r="B316" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C316" t="n">
+        <v>42988.6</v>
+      </c>
+      <c r="D316" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E316" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F316" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G316" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H316" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I316" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="4" t="n">
+        <v>45307.48958333334</v>
+      </c>
+      <c r="B317" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C317" t="n">
+        <v>42988.4</v>
+      </c>
+      <c r="D317" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E317" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F317" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G317" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H317" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I317" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="4" t="n">
+        <v>45307.48958333334</v>
+      </c>
+      <c r="B318" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C318" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D318" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E318" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F318" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G318" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H318" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I318" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="4" t="n">
+        <v>45307.48958333334</v>
+      </c>
+      <c r="B319" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C319" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D319" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E319" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F319" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G319" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H319" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I319" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="4" t="n">
+        <v>45307.48958333334</v>
+      </c>
+      <c r="B320" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C320" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D320" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E320" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F320" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G320" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H320" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I320" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="4" t="n">
+        <v>45307.48958333334</v>
+      </c>
+      <c r="B321" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C321" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D321" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E321" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F321" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G321" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H321" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I321" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="4" t="n">
+        <v>45307.48958333334</v>
+      </c>
+      <c r="B322" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C322" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D322" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E322" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F322" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G322" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H322" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I322" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="4" t="n">
+        <v>45307.48958333334</v>
+      </c>
+      <c r="B323" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C323" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D323" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E323" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F323" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G323" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H323" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I323" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="4" t="n">
+        <v>45307.48958333334</v>
+      </c>
+      <c r="B324" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C324" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D324" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E324" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F324" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G324" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H324" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I324" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B325" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C325" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D325" t="n">
+        <v>43018</v>
+      </c>
+      <c r="E325" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F325" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G325" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H325" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I325" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B326" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C326" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D326" t="n">
+        <v>43038</v>
+      </c>
+      <c r="E326" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F326" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G326" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H326" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I326" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B327" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C327" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D327" t="n">
+        <v>43058</v>
+      </c>
+      <c r="E327" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F327" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G327" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H327" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I327" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B328" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C328" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D328" t="n">
+        <v>43078</v>
+      </c>
+      <c r="E328" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F328" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G328" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H328" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I328" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B329" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C329" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D329" t="n">
+        <v>43158</v>
+      </c>
+      <c r="E329" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F329" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G329" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H329" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I329" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B330" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C330" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D330" t="n">
+        <v>43178</v>
+      </c>
+      <c r="E330" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F330" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G330" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H330" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I330" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B331" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C331" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D331" t="n">
+        <v>43198</v>
+      </c>
+      <c r="E331" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F331" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G331" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H331" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I331" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B332" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C332" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D332" t="n">
+        <v>43218</v>
+      </c>
+      <c r="E332" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F332" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G332" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H332" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I332" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B333" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C333" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D333" t="n">
+        <v>43238</v>
+      </c>
+      <c r="E333" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F333" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G333" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H333" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I333" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B334" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C334" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D334" t="n">
+        <v>43258</v>
+      </c>
+      <c r="E334" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F334" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G334" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H334" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I334" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B335" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C335" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D335" t="n">
+        <v>43278</v>
+      </c>
+      <c r="E335" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F335" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G335" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H335" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I335" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B336" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C336" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D336" t="n">
+        <v>43298</v>
+      </c>
+      <c r="E336" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F336" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G336" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H336" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I336" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B337" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C337" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D337" t="n">
+        <v>43318</v>
+      </c>
+      <c r="E337" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F337" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G337" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H337" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I337" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B338" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C338" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D338" t="n">
+        <v>43338</v>
+      </c>
+      <c r="E338" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F338" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G338" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H338" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I338" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B339" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C339" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D339" t="n">
+        <v>43358</v>
+      </c>
+      <c r="E339" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F339" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G339" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H339" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I339" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B340" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C340" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D340" t="n">
+        <v>43378</v>
+      </c>
+      <c r="E340" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F340" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G340" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H340" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I340" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B341" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C341" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D341" t="n">
+        <v>43398</v>
+      </c>
+      <c r="E341" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F341" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G341" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H341" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I341" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B342" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C342" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D342" t="n">
+        <v>43418</v>
+      </c>
+      <c r="E342" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F342" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G342" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H342" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I342" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B343" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C343" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D343" t="n">
+        <v>43438</v>
+      </c>
+      <c r="E343" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F343" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G343" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H343" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I343" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B344" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C344" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D344" t="n">
+        <v>43458</v>
+      </c>
+      <c r="E344" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F344" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G344" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H344" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I344" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B345" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C345" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D345" t="n">
+        <v>43478</v>
+      </c>
+      <c r="E345" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F345" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G345" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H345" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I345" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B346" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C346" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D346" t="n">
+        <v>43498</v>
+      </c>
+      <c r="E346" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F346" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G346" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H346" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I346" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="4" t="n">
+        <v>45307.51041666666</v>
+      </c>
+      <c r="B347" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C347" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D347" t="n">
+        <v>43518</v>
+      </c>
+      <c r="E347" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F347" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G347" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H347" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I347" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="4" t="n">
+        <v>45307.52083333334</v>
+      </c>
+      <c r="B348" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C348" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D348" t="n">
+        <v>43138</v>
+      </c>
+      <c r="E348" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F348" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G348" t="n">
+        <v>85976</v>
+      </c>
+      <c r="H348" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I348" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B349" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C349" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D349" t="n">
+        <v>43838</v>
+      </c>
+      <c r="E349" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F349" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G349" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H349" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I349" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B350" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C350" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D350" t="n">
+        <v>43858</v>
+      </c>
+      <c r="E350" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F350" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G350" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H350" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I350" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B351" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C351" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D351" t="n">
+        <v>43878</v>
+      </c>
+      <c r="E351" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F351" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G351" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H351" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I351" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B352" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C352" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D352" t="n">
+        <v>43898</v>
+      </c>
+      <c r="E352" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F352" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G352" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H352" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I352" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B353" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C353" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D353" t="n">
+        <v>43918</v>
+      </c>
+      <c r="E353" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F353" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G353" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H353" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I353" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B354" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C354" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D354" t="n">
+        <v>43938</v>
+      </c>
+      <c r="E354" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F354" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G354" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H354" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I354" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B355" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C355" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D355" t="n">
+        <v>43958</v>
+      </c>
+      <c r="E355" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F355" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G355" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H355" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I355" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B356" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C356" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D356" t="n">
+        <v>43978</v>
+      </c>
+      <c r="E356" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F356" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G356" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H356" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I356" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B357" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C357" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D357" t="n">
+        <v>43998</v>
+      </c>
+      <c r="E357" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F357" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G357" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H357" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I357" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B358" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C358" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D358" t="n">
+        <v>44018</v>
+      </c>
+      <c r="E358" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F358" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G358" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H358" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I358" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B359" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C359" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D359" t="n">
+        <v>44038</v>
+      </c>
+      <c r="E359" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F359" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G359" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H359" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I359" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B360" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C360" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D360" t="n">
+        <v>44058</v>
+      </c>
+      <c r="E360" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F360" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G360" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H360" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I360" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B361" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C361" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D361" t="n">
+        <v>44078</v>
+      </c>
+      <c r="E361" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F361" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G361" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H361" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I361" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B362" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C362" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D362" t="n">
+        <v>44098</v>
+      </c>
+      <c r="E362" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F362" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G362" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H362" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I362" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B363" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C363" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D363" t="n">
+        <v>44118</v>
+      </c>
+      <c r="E363" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F363" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G363" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H363" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I363" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B364" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C364" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D364" t="n">
+        <v>44138</v>
+      </c>
+      <c r="E364" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F364" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G364" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H364" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I364" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="4" t="n">
+        <v>45307.53125</v>
+      </c>
+      <c r="B365" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C365" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D365" t="n">
+        <v>44158</v>
+      </c>
+      <c r="E365" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F365" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G365" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H365" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I365" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B366" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C366" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D366" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E366" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F366" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G366" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H366" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I366" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B367" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C367" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D367" t="n">
+        <v>44558</v>
+      </c>
+      <c r="E367" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F367" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G367" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H367" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I367" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B368" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C368" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D368" t="n">
+        <v>44578</v>
+      </c>
+      <c r="E368" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F368" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G368" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H368" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I368" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B369" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C369" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D369" t="n">
+        <v>44598</v>
+      </c>
+      <c r="E369" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F369" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G369" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H369" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I369" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B370" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C370" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D370" t="n">
+        <v>44618</v>
+      </c>
+      <c r="E370" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F370" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G370" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H370" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I370" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B371" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C371" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D371" t="n">
+        <v>44638</v>
+      </c>
+      <c r="E371" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F371" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G371" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H371" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I371" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B372" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C372" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D372" t="n">
+        <v>44658</v>
+      </c>
+      <c r="E372" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F372" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G372" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H372" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I372" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B373" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C373" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D373" t="n">
+        <v>44678</v>
+      </c>
+      <c r="E373" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F373" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G373" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H373" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I373" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B374" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C374" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D374" t="n">
+        <v>44698</v>
+      </c>
+      <c r="E374" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F374" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G374" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H374" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I374" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B375" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C375" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D375" t="n">
+        <v>44718</v>
+      </c>
+      <c r="E375" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F375" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G375" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H375" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I375" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B376" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C376" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D376" t="n">
+        <v>44738</v>
+      </c>
+      <c r="E376" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F376" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G376" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H376" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I376" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B377" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C377" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D377" t="n">
+        <v>44758</v>
+      </c>
+      <c r="E377" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F377" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G377" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H377" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I377" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B378" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C378" t="n">
+        <v>43138</v>
+      </c>
+      <c r="D378" t="n">
+        <v>44778</v>
+      </c>
+      <c r="E378" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F378" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G378" t="n">
+        <v>85936</v>
+      </c>
+      <c r="H378" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I378" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B379" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C379" t="n">
+        <v>42988.7</v>
+      </c>
+      <c r="D379" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E379" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F379" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G379" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H379" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I379" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B380" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C380" t="n">
+        <v>42988.6</v>
+      </c>
+      <c r="D380" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E380" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F380" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G380" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H380" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I380" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B381" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C381" t="n">
+        <v>42988.7</v>
+      </c>
+      <c r="D381" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E381" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F381" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G381" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H381" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I381" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B382" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C382" t="n">
+        <v>42988.2</v>
+      </c>
+      <c r="D382" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E382" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F382" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G382" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H382" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I382" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B383" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C383" t="n">
+        <v>42988.3</v>
+      </c>
+      <c r="D383" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E383" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F383" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G383" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H383" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I383" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B384" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C384" t="n">
+        <v>42988.9</v>
+      </c>
+      <c r="D384" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E384" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F384" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G384" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H384" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I384" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B385" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C385" t="n">
+        <v>42988.4</v>
+      </c>
+      <c r="D385" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E385" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F385" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G385" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H385" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I385" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B386" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C386" t="n">
+        <v>42988.9</v>
+      </c>
+      <c r="D386" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E386" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F386" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G386" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H386" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I386" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B387" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C387" t="n">
+        <v>42988.9</v>
+      </c>
+      <c r="D387" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E387" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F387" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G387" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H387" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I387" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="4" t="n">
+        <v>45307.54166666666</v>
+      </c>
+      <c r="B388" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C388" t="n">
+        <v>42988.9</v>
+      </c>
+      <c r="D388" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E388" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F388" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G388" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H388" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I388" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="4" t="n">
+        <v>45307.55208333334</v>
+      </c>
+      <c r="B389" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C389" t="n">
+        <v>42988.2</v>
+      </c>
+      <c r="D389" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E389" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F389" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G389" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H389" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I389" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="4" t="n">
+        <v>45307.55208333334</v>
+      </c>
+      <c r="B390" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C390" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D390" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E390" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F390" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G390" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H390" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I390" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="4" t="n">
+        <v>45307.55208333334</v>
+      </c>
+      <c r="B391" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C391" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D391" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E391" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F391" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G391" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H391" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I391" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="4" t="n">
+        <v>45307.55208333334</v>
+      </c>
+      <c r="B392" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C392" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D392" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E392" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F392" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G392" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H392" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I392" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="4" t="n">
+        <v>45307.55208333334</v>
+      </c>
+      <c r="B393" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C393" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D393" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E393" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F393" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G393" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H393" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I393" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="4" t="n">
+        <v>45307.55208333334</v>
+      </c>
+      <c r="B394" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C394" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D394" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E394" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F394" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G394" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H394" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I394" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="4" t="n">
+        <v>45307.55208333334</v>
+      </c>
+      <c r="B395" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C395" t="n">
+        <v>42988</v>
+      </c>
+      <c r="D395" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E395" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F395" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G395" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H395" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I395" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="4" t="n">
+        <v>45307.55208333334</v>
+      </c>
+      <c r="B396" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C396" t="n">
+        <v>42988.6</v>
+      </c>
+      <c r="D396" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E396" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F396" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G396" t="n">
+        <v>85826</v>
+      </c>
+      <c r="H396" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I396" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B397" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C397" t="n">
+        <v>42888.4</v>
+      </c>
+      <c r="D397" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E397" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F397" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G397" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H397" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I397" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B398" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C398" t="n">
+        <v>42888.1</v>
+      </c>
+      <c r="D398" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E398" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F398" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G398" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H398" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I398" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B399" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C399" t="n">
+        <v>42888.1</v>
+      </c>
+      <c r="D399" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E399" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F399" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G399" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H399" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I399" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B400" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C400" t="n">
+        <v>42888.1</v>
+      </c>
+      <c r="D400" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E400" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F400" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G400" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H400" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I400" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B401" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C401" t="n">
+        <v>42888.3</v>
+      </c>
+      <c r="D401" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E401" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F401" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G401" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H401" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I401" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B402" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C402" t="n">
+        <v>42888.2</v>
+      </c>
+      <c r="D402" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E402" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F402" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G402" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H402" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I402" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B403" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C403" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D403" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E403" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F403" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G403" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H403" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I403" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B404" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C404" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D404" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E404" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F404" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G404" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H404" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I404" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B405" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C405" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D405" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E405" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F405" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G405" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H405" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I405" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B406" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C406" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D406" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E406" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F406" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G406" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H406" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I406" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B407" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C407" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D407" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E407" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F407" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G407" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H407" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I407" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B408" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C408" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D408" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E408" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F408" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G408" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H408" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I408" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B409" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C409" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D409" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E409" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F409" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G409" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H409" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I409" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B410" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C410" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D410" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E410" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F410" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G410" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H410" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I410" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B411" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C411" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D411" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E411" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F411" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G411" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H411" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I411" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B412" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C412" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D412" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E412" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F412" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G412" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H412" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I412" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B413" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C413" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D413" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E413" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F413" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G413" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H413" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I413" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B414" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C414" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D414" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E414" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F414" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G414" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H414" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I414" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B415" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C415" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D415" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E415" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F415" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G415" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H415" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I415" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B416" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C416" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D416" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E416" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F416" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G416" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H416" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I416" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B417" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C417" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D417" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E417" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F417" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G417" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H417" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I417" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B418" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C418" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D418" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E418" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F418" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G418" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H418" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I418" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B419" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C419" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D419" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E419" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F419" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G419" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H419" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I419" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B420" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C420" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D420" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E420" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F420" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G420" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H420" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I420" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B421" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C421" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D421" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E421" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F421" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G421" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H421" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I421" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B422" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C422" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D422" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E422" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F422" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G422" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H422" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I422" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="4" t="n">
+        <v>45307.5625</v>
+      </c>
+      <c r="B423" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C423" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D423" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E423" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F423" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G423" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H423" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I423" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B424" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C424" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D424" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E424" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F424" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G424" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H424" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I424" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B425" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C425" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D425" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E425" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F425" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G425" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H425" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I425" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B426" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C426" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D426" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E426" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F426" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G426" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H426" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I426" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B427" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C427" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D427" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E427" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F427" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G427" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H427" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I427" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B428" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C428" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D428" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E428" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F428" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G428" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H428" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I428" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B429" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C429" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D429" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E429" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F429" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G429" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H429" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I429" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B430" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C430" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D430" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E430" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F430" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G430" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H430" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I430" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B431" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C431" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D431" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E431" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F431" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G431" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H431" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I431" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B432" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C432" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D432" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E432" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F432" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G432" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H432" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I432" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B433" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C433" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D433" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E433" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F433" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G433" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H433" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I433" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B434" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C434" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D434" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E434" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F434" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G434" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H434" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I434" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B435" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C435" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D435" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E435" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F435" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G435" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H435" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I435" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B436" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C436" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D436" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E436" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F436" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G436" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H436" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I436" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B437" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C437" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D437" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E437" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F437" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G437" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H437" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I437" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B438" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C438" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D438" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E438" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F438" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G438" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H438" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I438" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B439" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C439" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D439" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E439" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F439" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G439" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H439" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I439" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B440" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C440" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D440" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E440" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F440" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G440" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H440" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I440" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B441" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C441" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D441" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E441" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F441" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G441" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H441" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I441" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B442" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C442" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D442" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E442" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F442" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G442" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H442" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I442" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B443" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C443" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D443" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E443" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F443" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G443" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H443" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I443" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B444" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C444" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D444" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E444" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F444" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G444" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H444" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I444" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B445" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C445" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D445" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E445" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F445" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G445" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H445" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I445" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B446" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C446" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D446" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E446" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F446" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G446" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H446" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I446" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B447" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C447" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D447" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E447" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F447" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G447" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H447" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I447" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B448" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C448" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D448" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E448" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F448" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G448" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H448" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I448" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B449" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C449" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D449" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E449" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F449" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G449" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H449" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I449" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B450" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C450" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D450" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E450" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F450" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G450" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H450" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I450" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B451" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C451" t="n">
+        <v>42888</v>
+      </c>
+      <c r="D451" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E451" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F451" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G451" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H451" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I451" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B452" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C452" t="n">
+        <v>42888</v>
+      </c>
+      <c r="D452" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E452" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F452" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G452" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H452" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I452" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B453" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C453" t="n">
+        <v>42888</v>
+      </c>
+      <c r="D453" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E453" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F453" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G453" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H453" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I453" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B454" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C454" t="n">
+        <v>42888</v>
+      </c>
+      <c r="D454" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E454" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F454" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G454" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H454" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I454" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B455" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C455" t="n">
+        <v>42888.1</v>
+      </c>
+      <c r="D455" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E455" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F455" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G455" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H455" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I455" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B456" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C456" t="n">
+        <v>42888</v>
+      </c>
+      <c r="D456" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E456" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F456" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G456" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H456" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I456" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B457" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C457" t="n">
+        <v>42888</v>
+      </c>
+      <c r="D457" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E457" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F457" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G457" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H457" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I457" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B458" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C458" t="n">
+        <v>42888</v>
+      </c>
+      <c r="D458" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E458" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F458" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G458" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H458" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I458" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B459" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C459" t="n">
+        <v>42888</v>
+      </c>
+      <c r="D459" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E459" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F459" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G459" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H459" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I459" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B460" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C460" t="n">
+        <v>42888.1</v>
+      </c>
+      <c r="D460" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E460" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F460" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G460" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H460" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I460" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B461" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C461" t="n">
+        <v>42888</v>
+      </c>
+      <c r="D461" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E461" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F461" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G461" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H461" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I461" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B462" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C462" t="n">
+        <v>42888.8</v>
+      </c>
+      <c r="D462" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E462" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F462" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G462" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H462" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I462" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B463" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C463" t="n">
+        <v>42888.8</v>
+      </c>
+      <c r="D463" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E463" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F463" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G463" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H463" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I463" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B464" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C464" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D464" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E464" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F464" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G464" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H464" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I464" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B465" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C465" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D465" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E465" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F465" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G465" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H465" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I465" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B466" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C466" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D466" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E466" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F466" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G466" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H466" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I466" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B467" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C467" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D467" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E467" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F467" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G467" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H467" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I467" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B468" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C468" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D468" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E468" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F468" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G468" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H468" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I468" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B469" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C469" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D469" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E469" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F469" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G469" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H469" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I469" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B470" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C470" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D470" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E470" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F470" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G470" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H470" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I470" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B471" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C471" t="n">
+        <v>42888.9</v>
+      </c>
+      <c r="D471" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E471" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F471" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G471" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H471" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I471" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B472" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C472" t="n">
+        <v>42888.8</v>
+      </c>
+      <c r="D472" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E472" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F472" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G472" t="n">
+        <v>85726</v>
+      </c>
+      <c r="H472" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I472" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B473" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C473" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D473" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E473" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F473" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G473" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H473" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I473" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B474" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C474" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D474" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E474" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F474" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G474" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H474" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I474" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B475" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C475" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D475" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E475" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F475" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G475" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H475" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I475" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B476" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C476" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D476" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E476" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F476" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G476" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H476" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I476" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B477" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C477" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D477" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E477" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F477" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G477" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H477" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I477" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B478" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C478" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D478" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E478" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F478" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G478" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H478" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I478" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B479" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C479" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D479" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E479" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F479" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G479" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H479" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I479" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B480" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C480" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D480" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E480" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F480" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G480" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H480" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I480" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B481" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C481" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D481" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E481" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F481" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G481" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H481" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I481" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B482" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C482" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D482" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E482" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F482" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G482" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H482" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I482" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B483" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C483" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D483" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E483" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F483" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G483" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H483" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I483" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B484" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C484" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D484" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E484" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F484" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G484" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H484" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I484" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B485" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C485" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D485" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E485" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F485" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G485" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H485" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I485" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B486" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C486" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D486" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E486" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F486" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G486" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H486" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I486" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B487" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C487" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D487" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E487" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F487" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G487" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H487" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I487" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B488" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C488" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D488" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E488" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F488" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G488" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H488" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I488" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B489" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C489" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D489" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E489" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F489" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G489" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H489" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I489" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B490" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C490" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D490" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E490" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F490" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G490" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H490" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I490" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B491" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C491" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D491" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E491" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F491" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G491" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H491" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I491" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B492" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C492" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D492" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E492" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F492" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G492" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H492" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I492" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B493" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C493" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D493" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E493" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F493" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G493" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H493" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I493" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B494" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C494" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D494" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E494" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F494" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G494" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H494" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I494" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B495" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C495" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D495" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E495" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F495" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G495" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H495" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I495" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B496" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C496" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D496" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E496" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F496" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G496" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H496" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I496" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B497" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C497" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D497" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E497" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F497" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G497" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H497" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I497" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="4" t="n">
+        <v>45307.57291666666</v>
+      </c>
+      <c r="B498" t="n">
+        <v>42838</v>
+      </c>
+      <c r="C498" t="n">
+        <v>42838</v>
+      </c>
+      <c r="D498" t="n">
+        <v>42838</v>
+      </c>
+      <c r="E498" t="n">
+        <v>42888</v>
+      </c>
+      <c r="F498" t="n">
+        <v>42988</v>
+      </c>
+      <c r="G498" t="n">
+        <v>85676</v>
+      </c>
+      <c r="H498" t="n">
+        <v>43098</v>
+      </c>
+      <c r="I498" t="n">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B499" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C499" t="n">
+        <v>42892.9</v>
+      </c>
+      <c r="D499" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E499" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F499" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G499" t="n">
+        <v>85734.5</v>
+      </c>
+      <c r="H499" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I499" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B500" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C500" t="n">
+        <v>42892.4</v>
+      </c>
+      <c r="D500" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E500" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F500" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G500" t="n">
+        <v>85734.5</v>
+      </c>
+      <c r="H500" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I500" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B501" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C501" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D501" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E501" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F501" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G501" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H501" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I501" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B502" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C502" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D502" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E502" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F502" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G502" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H502" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I502" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B503" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C503" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D503" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E503" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F503" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G503" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H503" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I503" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B504" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C504" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D504" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E504" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F504" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G504" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H504" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I504" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B505" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C505" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D505" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E505" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F505" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G505" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H505" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I505" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B506" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C506" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D506" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E506" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F506" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G506" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H506" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I506" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B507" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C507" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D507" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E507" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F507" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G507" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H507" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I507" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="4" t="n">
+        <v>45307.59375</v>
+      </c>
+      <c r="B508" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C508" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D508" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E508" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F508" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G508" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H508" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I508" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="4" t="n">
+        <v>45307.60416666666</v>
+      </c>
+      <c r="B509" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C509" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D509" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E509" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F509" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G509" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H509" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I509" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="4" t="n">
+        <v>45307.60416666666</v>
+      </c>
+      <c r="B510" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C510" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D510" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E510" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F510" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G510" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H510" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I510" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="4" t="n">
+        <v>45307.60416666666</v>
+      </c>
+      <c r="B511" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C511" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D511" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E511" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F511" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G511" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H511" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I511" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="4" t="n">
+        <v>45307.60416666666</v>
+      </c>
+      <c r="B512" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C512" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D512" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E512" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F512" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G512" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H512" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I512" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="4" t="n">
+        <v>45307.60416666666</v>
+      </c>
+      <c r="B513" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C513" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D513" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E513" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F513" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G513" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H513" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I513" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="4" t="n">
+        <v>45307.60416666666</v>
+      </c>
+      <c r="B514" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C514" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D514" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E514" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F514" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G514" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H514" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I514" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="4" t="n">
+        <v>45307.60416666666</v>
+      </c>
+      <c r="B515" t="n">
+        <v>42842.5</v>
+      </c>
+      <c r="C515" t="n">
+        <v>42715</v>
+      </c>
+      <c r="D515" t="n">
+        <v>42715</v>
+      </c>
+      <c r="E515" t="n">
+        <v>42892</v>
+      </c>
+      <c r="F515" t="n">
+        <v>42992</v>
+      </c>
+      <c r="G515" t="n">
+        <v>85557.5</v>
+      </c>
+      <c r="H515" t="n">
+        <v>43102</v>
+      </c>
+      <c r="I515" t="n">
+        <v>154340</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B516" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C516" t="n">
+        <v>43125.3</v>
+      </c>
+      <c r="D516" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E516" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F516" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G516" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H516" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I516" t="n">
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B517" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C517" t="n">
+        <v>43125.3</v>
+      </c>
+      <c r="D517" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E517" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F517" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G517" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H517" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I517" t="n">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B518" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C518" t="n">
+        <v>43125.3</v>
+      </c>
+      <c r="D518" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E518" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F518" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G518" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H518" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I518" t="n">
+        <v>10060</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B519" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C519" t="n">
+        <v>43125.3</v>
+      </c>
+      <c r="D519" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E519" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F519" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G519" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H519" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I519" t="n">
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B520" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C520" t="n">
+        <v>43125.4</v>
+      </c>
+      <c r="D520" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E520" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F520" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G520" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H520" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I520" t="n">
+        <v>10140</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B521" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C521" t="n">
+        <v>43125.4</v>
+      </c>
+      <c r="D521" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E521" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F521" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G521" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H521" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I521" t="n">
+        <v>10180</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B522" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C522" t="n">
+        <v>43125.4</v>
+      </c>
+      <c r="D522" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E522" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F522" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G522" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H522" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I522" t="n">
+        <v>10220</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B523" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C523" t="n">
+        <v>43125.4</v>
+      </c>
+      <c r="D523" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E523" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F523" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G523" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H523" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I523" t="n">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B524" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C524" t="n">
+        <v>43125.3</v>
+      </c>
+      <c r="D524" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E524" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F524" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G524" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H524" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I524" t="n">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B525" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C525" t="n">
+        <v>43125.3</v>
+      </c>
+      <c r="D525" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E525" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F525" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G525" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H525" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I525" t="n">
+        <v>10340</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B526" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C526" t="n">
+        <v>43125</v>
+      </c>
+      <c r="D526" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E526" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F526" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G526" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H526" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I526" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B527" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C527" t="n">
+        <v>43125.4</v>
+      </c>
+      <c r="D527" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E527" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F527" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G527" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H527" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I527" t="n">
+        <v>10540</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B528" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C528" t="n">
+        <v>43125.4</v>
+      </c>
+      <c r="D528" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E528" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F528" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G528" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H528" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I528" t="n">
+        <v>10580</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B529" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C529" t="n">
+        <v>43125.5</v>
+      </c>
+      <c r="D529" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E529" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F529" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G529" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H529" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I529" t="n">
+        <v>10620</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B530" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C530" t="n">
+        <v>43125.5</v>
+      </c>
+      <c r="D530" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E530" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F530" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G530" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H530" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I530" t="n">
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B531" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C531" t="n">
+        <v>43125.5</v>
+      </c>
+      <c r="D531" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E531" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F531" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G531" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H531" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I531" t="n">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B532" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C532" t="n">
+        <v>43125.5</v>
+      </c>
+      <c r="D532" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E532" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F532" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G532" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H532" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I532" t="n">
+        <v>10740</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B533" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C533" t="n">
+        <v>43125.5</v>
+      </c>
+      <c r="D533" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E533" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F533" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G533" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H533" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I533" t="n">
+        <v>10780</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="4" t="n">
+        <v>45308.02083333334</v>
+      </c>
+      <c r="B534" t="n">
+        <v>43075.5</v>
+      </c>
+      <c r="C534" t="n">
+        <v>43125.4</v>
+      </c>
+      <c r="D534" t="n">
+        <v>43044</v>
+      </c>
+      <c r="E534" t="n">
+        <v>43125</v>
+      </c>
+      <c r="F534" t="n">
+        <v>43225</v>
+      </c>
+      <c r="G534" t="n">
+        <v>86200.5</v>
+      </c>
+      <c r="H534" t="n">
+        <v>43335</v>
+      </c>
+      <c r="I534" t="n">
+        <v>10820</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B535" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C535" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D535" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E535" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F535" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G535" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H535" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I535" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B536" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C536" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D536" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E536" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F536" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G536" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H536" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I536" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B537" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C537" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D537" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E537" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F537" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G537" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H537" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I537" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B538" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C538" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D538" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E538" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F538" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G538" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H538" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I538" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B539" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C539" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D539" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E539" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F539" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G539" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H539" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I539" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B540" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C540" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D540" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E540" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F540" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G540" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H540" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I540" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B541" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C541" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D541" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E541" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F541" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G541" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H541" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I541" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B542" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C542" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D542" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E542" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F542" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G542" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H542" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I542" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B543" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C543" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D543" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E543" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F543" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G543" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H543" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I543" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B544" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C544" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D544" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E544" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F544" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G544" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H544" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I544" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B545" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C545" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D545" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E545" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F545" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G545" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H545" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I545" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B546" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C546" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D546" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E546" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F546" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G546" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H546" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I546" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B547" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C547" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D547" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E547" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F547" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G547" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H547" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I547" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B548" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C548" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D548" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E548" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F548" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G548" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H548" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I548" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B549" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C549" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D549" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E549" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F549" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G549" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H549" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I549" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B550" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C550" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D550" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E550" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F550" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G550" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H550" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I550" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B551" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C551" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D551" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E551" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F551" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G551" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H551" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I551" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B552" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C552" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D552" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E552" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F552" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G552" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H552" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I552" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B553" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C553" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D553" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E553" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F553" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G553" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H553" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I553" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B554" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C554" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D554" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E554" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F554" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G554" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H554" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I554" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B555" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C555" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D555" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E555" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F555" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G555" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H555" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I555" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B556" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C556" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D556" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E556" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F556" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G556" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H556" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I556" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B557" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C557" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D557" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E557" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F557" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G557" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H557" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I557" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B558" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C558" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D558" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E558" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F558" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G558" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H558" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I558" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B559" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C559" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D559" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E559" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F559" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G559" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H559" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I559" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B560" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C560" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D560" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E560" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F560" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G560" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H560" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I560" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B561" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C561" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D561" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E561" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F561" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G561" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H561" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I561" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B562" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C562" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D562" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E562" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F562" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G562" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H562" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I562" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B563" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C563" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D563" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E563" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F563" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G563" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H563" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I563" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B564" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C564" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D564" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E564" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F564" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G564" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H564" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I564" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B565" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C565" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D565" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E565" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F565" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G565" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H565" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I565" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B566" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C566" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D566" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E566" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F566" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G566" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H566" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I566" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B567" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C567" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D567" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E567" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F567" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G567" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H567" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I567" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B568" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C568" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D568" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E568" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F568" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G568" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H568" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I568" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B569" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C569" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D569" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E569" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F569" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G569" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H569" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I569" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B570" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C570" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D570" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E570" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F570" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G570" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H570" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I570" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="4" t="n">
+        <v>45308.13541666666</v>
+      </c>
+      <c r="B571" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C571" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D571" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E571" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F571" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G571" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H571" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I571" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="4" t="n">
+        <v>45308.14583333334</v>
+      </c>
+      <c r="B572" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C572" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D572" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E572" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F572" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G572" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H572" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I572" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="4" t="n">
+        <v>45308.14583333334</v>
+      </c>
+      <c r="B573" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C573" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D573" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E573" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F573" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G573" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H573" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I573" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="4" t="n">
+        <v>45308.14583333334</v>
+      </c>
+      <c r="B574" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C574" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D574" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E574" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F574" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G574" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H574" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I574" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="4" t="n">
+        <v>45308.14583333334</v>
+      </c>
+      <c r="B575" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C575" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D575" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E575" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F575" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G575" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H575" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I575" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="4" t="n">
+        <v>45308.14583333334</v>
+      </c>
+      <c r="B576" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C576" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D576" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E576" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F576" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G576" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H576" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I576" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="4" t="n">
+        <v>45308.14583333334</v>
+      </c>
+      <c r="B577" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C577" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D577" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E577" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F577" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G577" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H577" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I577" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B578" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C578" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D578" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E578" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F578" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G578" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H578" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I578" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B579" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C579" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D579" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E579" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F579" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G579" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H579" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I579" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B580" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C580" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D580" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E580" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F580" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G580" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H580" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I580" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B581" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C581" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D581" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E581" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F581" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G581" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H581" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I581" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B582" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C582" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D582" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E582" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F582" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G582" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H582" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I582" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B583" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C583" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D583" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E583" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F583" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G583" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H583" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I583" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B584" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C584" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D584" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E584" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F584" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G584" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H584" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I584" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B585" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C585" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D585" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E585" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F585" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G585" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H585" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I585" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B586" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C586" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D586" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E586" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F586" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G586" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H586" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I586" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B587" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C587" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D587" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E587" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F587" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G587" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H587" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I587" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B588" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C588" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D588" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E588" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F588" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G588" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H588" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I588" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B589" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C589" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D589" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E589" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F589" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G589" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H589" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I589" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B590" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C590" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D590" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E590" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F590" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G590" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H590" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I590" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B591" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C591" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D591" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E591" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F591" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G591" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H591" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I591" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B592" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C592" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D592" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E592" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F592" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G592" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H592" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I592" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B593" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C593" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D593" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E593" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F593" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G593" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H593" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I593" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B594" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C594" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D594" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E594" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F594" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G594" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H594" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I594" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B595" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C595" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D595" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E595" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F595" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G595" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H595" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I595" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B596" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C596" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D596" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E596" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F596" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G596" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H596" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I596" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="4" t="n">
+        <v>45308.15625</v>
+      </c>
+      <c r="B597" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C597" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D597" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E597" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F597" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G597" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H597" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I597" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="4" t="n">
+        <v>45308.20833333334</v>
+      </c>
+      <c r="B598" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C598" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D598" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E598" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F598" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G598" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H598" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I598" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="4" t="n">
+        <v>45308.20833333334</v>
+      </c>
+      <c r="B599" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C599" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D599" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E599" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F599" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G599" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H599" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I599" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="4" t="n">
+        <v>45308.20833333334</v>
+      </c>
+      <c r="B600" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C600" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D600" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E600" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F600" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G600" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H600" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I600" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="4" t="n">
+        <v>45308.21875</v>
+      </c>
+      <c r="B601" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C601" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D601" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E601" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F601" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G601" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H601" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I601" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="4" t="n">
+        <v>45308.21875</v>
+      </c>
+      <c r="B602" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C602" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D602" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E602" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F602" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G602" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H602" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I602" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="4" t="n">
+        <v>45308.21875</v>
+      </c>
+      <c r="B603" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C603" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D603" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E603" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F603" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G603" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H603" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I603" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="4" t="n">
+        <v>45308.21875</v>
+      </c>
+      <c r="B604" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C604" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D604" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E604" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F604" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G604" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H604" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I604" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="4" t="n">
+        <v>45308.21875</v>
+      </c>
+      <c r="B605" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C605" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D605" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E605" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F605" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G605" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H605" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I605" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="4" t="n">
+        <v>45308.21875</v>
+      </c>
+      <c r="B606" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C606" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D606" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E606" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F606" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G606" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H606" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I606" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="4" t="n">
+        <v>45308.21875</v>
+      </c>
+      <c r="B607" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C607" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D607" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E607" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F607" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G607" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H607" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I607" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="4" t="n">
+        <v>45308.21875</v>
+      </c>
+      <c r="B608" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C608" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D608" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E608" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F608" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G608" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H608" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I608" t="n">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="4" t="n">
+        <v>45308.21875</v>
+      </c>
+      <c r="B609" t="n">
+        <v>43015.7</v>
+      </c>
+      <c r="C609" t="n">
+        <v>42910</v>
+      </c>
+      <c r="D609" t="n">
+        <v>42910</v>
+      </c>
+      <c r="E609" t="n">
+        <v>43065</v>
+      </c>
+      <c r="F609" t="n">
+        <v>43165</v>
+      </c>
+      <c r="G609" t="n">
+        <v>85925.7</v>
+      </c>
+      <c r="H609" t="n">
+        <v>43275</v>
+      </c>
+      <c r="I609" t="n">
+        <v>62660</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
